--- a/output/reports/detection_logs_5 minute test - 4 Way Intersection.xlsx
+++ b/output/reports/detection_logs_5 minute test - 4 Way Intersection.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="750">
   <si>
     <t>Vehicle Tracker ID</t>
   </si>
@@ -58,376 +58,388 @@
     <t>v_9</t>
   </si>
   <si>
+    <t>v_22</t>
+  </si>
+  <si>
     <t>v_21</t>
   </si>
   <si>
-    <t>v_20</t>
+    <t>v_24</t>
+  </si>
+  <si>
+    <t>v_26</t>
+  </si>
+  <si>
+    <t>v_23</t>
+  </si>
+  <si>
+    <t>v_19</t>
+  </si>
+  <si>
+    <t>v_17</t>
+  </si>
+  <si>
+    <t>v_34</t>
+  </si>
+  <si>
+    <t>v_35</t>
+  </si>
+  <si>
+    <t>v_28</t>
   </si>
   <si>
     <t>v_27</t>
   </si>
   <si>
-    <t>v_32</t>
-  </si>
-  <si>
-    <t>v_19</t>
-  </si>
-  <si>
-    <t>v_25</t>
-  </si>
-  <si>
-    <t>v_23</t>
-  </si>
-  <si>
-    <t>v_31</t>
-  </si>
-  <si>
-    <t>v_30</t>
+    <t>v_29</t>
+  </si>
+  <si>
+    <t>v_39</t>
   </si>
   <si>
     <t>v_37</t>
   </si>
   <si>
-    <t>v_42</t>
-  </si>
-  <si>
     <t>v_45</t>
   </si>
   <si>
-    <t>v_36</t>
-  </si>
-  <si>
-    <t>v_41</t>
+    <t>v_43</t>
   </si>
   <si>
     <t>v_46</t>
   </si>
   <si>
-    <t>v_55</t>
-  </si>
-  <si>
     <t>v_40</t>
   </si>
   <si>
+    <t>v_64</t>
+  </si>
+  <si>
+    <t>v_58</t>
+  </si>
+  <si>
+    <t>v_63</t>
+  </si>
+  <si>
+    <t>v_65</t>
+  </si>
+  <si>
+    <t>v_68</t>
+  </si>
+  <si>
+    <t>v_60</t>
+  </si>
+  <si>
+    <t>v_74</t>
+  </si>
+  <si>
+    <t>v_72</t>
+  </si>
+  <si>
+    <t>v_77</t>
+  </si>
+  <si>
+    <t>v_70</t>
+  </si>
+  <si>
+    <t>v_71</t>
+  </si>
+  <si>
+    <t>v_80</t>
+  </si>
+  <si>
     <t>v_57</t>
   </si>
   <si>
-    <t>v_54</t>
-  </si>
-  <si>
-    <t>v_63</t>
-  </si>
-  <si>
-    <t>v_60</t>
-  </si>
-  <si>
-    <t>v_58</t>
-  </si>
-  <si>
-    <t>v_68</t>
-  </si>
-  <si>
-    <t>v_65</t>
-  </si>
-  <si>
-    <t>v_69</t>
-  </si>
-  <si>
-    <t>v_64</t>
-  </si>
-  <si>
-    <t>v_75</t>
-  </si>
-  <si>
-    <t>v_66</t>
-  </si>
-  <si>
-    <t>v_74</t>
+    <t>v_82</t>
+  </si>
+  <si>
+    <t>v_89</t>
   </si>
   <si>
     <t>v_81</t>
   </si>
   <si>
-    <t>v_73</t>
+    <t>v_87</t>
+  </si>
+  <si>
+    <t>v_92</t>
+  </si>
+  <si>
+    <t>v_93</t>
+  </si>
+  <si>
+    <t>v_84</t>
+  </si>
+  <si>
+    <t>v_86</t>
+  </si>
+  <si>
+    <t>v_94</t>
+  </si>
+  <si>
+    <t>v_96</t>
+  </si>
+  <si>
+    <t>v_97</t>
+  </si>
+  <si>
+    <t>v_99</t>
   </si>
   <si>
     <t>v_79</t>
   </si>
   <si>
-    <t>v_71</t>
-  </si>
-  <si>
-    <t>v_67</t>
-  </si>
-  <si>
-    <t>v_80</t>
-  </si>
-  <si>
-    <t>v_78</t>
-  </si>
-  <si>
-    <t>v_85</t>
-  </si>
-  <si>
-    <t>v_87</t>
-  </si>
-  <si>
-    <t>v_88</t>
+    <t>v_103</t>
+  </si>
+  <si>
+    <t>v_105</t>
+  </si>
+  <si>
+    <t>v_101</t>
+  </si>
+  <si>
+    <t>v_107</t>
+  </si>
+  <si>
+    <t>v_108</t>
+  </si>
+  <si>
+    <t>v_95</t>
+  </si>
+  <si>
+    <t>v_111</t>
+  </si>
+  <si>
+    <t>v_100</t>
+  </si>
+  <si>
+    <t>v_104</t>
   </si>
   <si>
     <t>v_83</t>
   </si>
   <si>
-    <t>v_90</t>
-  </si>
-  <si>
-    <t>v_94</t>
-  </si>
-  <si>
-    <t>v_53</t>
-  </si>
-  <si>
-    <t>v_95</t>
-  </si>
-  <si>
-    <t>v_86</t>
-  </si>
-  <si>
-    <t>v_93</t>
-  </si>
-  <si>
-    <t>v_76</t>
-  </si>
-  <si>
-    <t>v_98</t>
-  </si>
-  <si>
-    <t>v_99</t>
-  </si>
-  <si>
-    <t>v_103</t>
-  </si>
-  <si>
-    <t>v_104</t>
-  </si>
-  <si>
-    <t>v_107</t>
-  </si>
-  <si>
-    <t>v_109</t>
-  </si>
-  <si>
-    <t>v_110</t>
-  </si>
-  <si>
-    <t>v_111</t>
-  </si>
-  <si>
-    <t>v_112</t>
-  </si>
-  <si>
-    <t>v_114</t>
-  </si>
-  <si>
-    <t>v_115</t>
-  </si>
-  <si>
-    <t>v_108</t>
-  </si>
-  <si>
-    <t>v_91</t>
-  </si>
-  <si>
     <t>v_119</t>
   </si>
   <si>
-    <t>v_121</t>
+    <t>v_118</t>
+  </si>
+  <si>
+    <t>v_126</t>
+  </si>
+  <si>
+    <t>v_127</t>
+  </si>
+  <si>
+    <t>v_128</t>
+  </si>
+  <si>
+    <t>v_129</t>
+  </si>
+  <si>
+    <t>v_130</t>
+  </si>
+  <si>
+    <t>v_131</t>
+  </si>
+  <si>
+    <t>v_133</t>
+  </si>
+  <si>
+    <t>v_134</t>
+  </si>
+  <si>
+    <t>v_122</t>
+  </si>
+  <si>
+    <t>v_135</t>
+  </si>
+  <si>
+    <t>v_137</t>
+  </si>
+  <si>
+    <t>v_116</t>
+  </si>
+  <si>
+    <t>v_124</t>
+  </si>
+  <si>
+    <t>v_140</t>
   </si>
   <si>
     <t>v_106</t>
   </si>
   <si>
-    <t>v_118</t>
-  </si>
-  <si>
-    <t>v_117</t>
-  </si>
-  <si>
-    <t>v_92</t>
-  </si>
-  <si>
-    <t>v_124</t>
-  </si>
-  <si>
-    <t>v_113</t>
-  </si>
-  <si>
-    <t>v_130</t>
-  </si>
-  <si>
-    <t>v_123</t>
+    <t>v_141</t>
   </si>
   <si>
     <t>v_132</t>
   </si>
   <si>
-    <t>v_140</t>
-  </si>
-  <si>
-    <t>v_135</t>
-  </si>
-  <si>
-    <t>v_96</t>
-  </si>
-  <si>
     <t>v_144</t>
   </si>
   <si>
     <t>v_146</t>
   </si>
   <si>
-    <t>v_155</t>
-  </si>
-  <si>
-    <t>v_157</t>
-  </si>
-  <si>
-    <t>v_166</t>
+    <t>v_138</t>
+  </si>
+  <si>
+    <t>v_149</t>
+  </si>
+  <si>
+    <t>v_148</t>
+  </si>
+  <si>
+    <t>v_159</t>
+  </si>
+  <si>
+    <t>v_156</t>
+  </si>
+  <si>
+    <t>v_145</t>
+  </si>
+  <si>
+    <t>v_162</t>
+  </si>
+  <si>
+    <t>v_164</t>
   </si>
   <si>
     <t>v_165</t>
   </si>
   <si>
-    <t>v_164</t>
-  </si>
-  <si>
-    <t>v_167</t>
-  </si>
-  <si>
-    <t>v_169</t>
-  </si>
-  <si>
-    <t>v_168</t>
-  </si>
-  <si>
     <t>v_171</t>
   </si>
   <si>
-    <t>v_174</t>
-  </si>
-  <si>
-    <t>v_162</t>
-  </si>
-  <si>
-    <t>v_172</t>
-  </si>
-  <si>
-    <t>v_173</t>
-  </si>
-  <si>
-    <t>v_159</t>
-  </si>
-  <si>
-    <t>v_160</t>
-  </si>
-  <si>
-    <t>v_178</t>
-  </si>
-  <si>
-    <t>v_181</t>
-  </si>
-  <si>
-    <t>v_176</t>
+    <t>v_184</t>
+  </si>
+  <si>
+    <t>v_186</t>
   </si>
   <si>
     <t>v_180</t>
   </si>
   <si>
+    <t>v_188</t>
+  </si>
+  <si>
+    <t>v_190</t>
+  </si>
+  <si>
     <t>v_193</t>
   </si>
   <si>
     <t>v_195</t>
   </si>
   <si>
-    <t>v_194</t>
-  </si>
-  <si>
-    <t>v_199</t>
+    <t>v_179</t>
+  </si>
+  <si>
+    <t>v_197</t>
+  </si>
+  <si>
+    <t>v_192</t>
+  </si>
+  <si>
+    <t>v_201</t>
+  </si>
+  <si>
+    <t>v_191</t>
+  </si>
+  <si>
+    <t>v_198</t>
+  </si>
+  <si>
+    <t>v_208</t>
+  </si>
+  <si>
+    <t>v_210</t>
+  </si>
+  <si>
+    <t>v_209</t>
+  </si>
+  <si>
+    <t>v_217</t>
   </si>
   <si>
     <t>v_203</t>
   </si>
   <si>
-    <t>v_204</t>
+    <t>v_220</t>
+  </si>
+  <si>
+    <t>v_215</t>
+  </si>
+  <si>
+    <t>v_226</t>
+  </si>
+  <si>
+    <t>v_213</t>
+  </si>
+  <si>
+    <t>v_216</t>
   </si>
   <si>
     <t>v_205</t>
   </si>
   <si>
-    <t>v_196</t>
-  </si>
-  <si>
-    <t>v_170</t>
-  </si>
-  <si>
-    <t>v_189</t>
-  </si>
-  <si>
-    <t>v_188</t>
+    <t>v_225</t>
+  </si>
+  <si>
+    <t>v_211</t>
+  </si>
+  <si>
+    <t>v_228</t>
+  </si>
+  <si>
+    <t>v_227</t>
   </si>
   <si>
     <t>v_206</t>
   </si>
   <si>
-    <t>v_202</t>
-  </si>
-  <si>
-    <t>v_187</t>
-  </si>
-  <si>
-    <t>v_207</t>
-  </si>
-  <si>
-    <t>v_210</t>
-  </si>
-  <si>
-    <t>v_208</t>
-  </si>
-  <si>
-    <t>v_209</t>
-  </si>
-  <si>
-    <t>v_214</t>
-  </si>
-  <si>
-    <t>v_213</t>
-  </si>
-  <si>
-    <t>v_216</t>
-  </si>
-  <si>
-    <t>v_200</t>
-  </si>
-  <si>
-    <t>v_218</t>
-  </si>
-  <si>
-    <t>v_217</t>
+    <t>v_229</t>
+  </si>
+  <si>
+    <t>v_232</t>
+  </si>
+  <si>
+    <t>v_230</t>
+  </si>
+  <si>
+    <t>v_231</t>
+  </si>
+  <si>
+    <t>v_234</t>
   </si>
   <si>
     <t>v_219</t>
   </si>
   <si>
-    <t>v_222</t>
-  </si>
-  <si>
-    <t>v_221</t>
-  </si>
-  <si>
-    <t>v_220</t>
-  </si>
-  <si>
-    <t>v_229</t>
+    <t>v_237</t>
+  </si>
+  <si>
+    <t>v_244</t>
+  </si>
+  <si>
+    <t>v_241</t>
+  </si>
+  <si>
+    <t>v_243</t>
+  </si>
+  <si>
+    <t>v_246</t>
+  </si>
+  <si>
+    <t>v_239</t>
+  </si>
+  <si>
+    <t>v_245</t>
+  </si>
+  <si>
+    <t>v_252</t>
   </si>
   <si>
     <t>9P</t>
@@ -478,751 +490,739 @@
     <t>East</t>
   </si>
   <si>
-    <t>21:25:32.891</t>
-  </si>
-  <si>
-    <t>21:25:34.571</t>
-  </si>
-  <si>
-    <t>21:25:43.371</t>
-  </si>
-  <si>
-    <t>21:25:45.131</t>
-  </si>
-  <si>
-    <t>21:26:02.731</t>
-  </si>
-  <si>
-    <t>21:26:06.771</t>
-  </si>
-  <si>
-    <t>21:26:08.011</t>
-  </si>
-  <si>
-    <t>21:26:13.771</t>
-  </si>
-  <si>
-    <t>21:26:04.091</t>
-  </si>
-  <si>
-    <t>21:26:13.651</t>
-  </si>
-  <si>
-    <t>21:26:14.651</t>
-  </si>
-  <si>
-    <t>21:26:24.251</t>
-  </si>
-  <si>
-    <t>21:26:11.371</t>
-  </si>
-  <si>
-    <t>21:26:27.651</t>
-  </si>
-  <si>
-    <t>21:26:29.531</t>
-  </si>
-  <si>
-    <t>21:26:31.811</t>
-  </si>
-  <si>
-    <t>21:26:21.211</t>
-  </si>
-  <si>
-    <t>21:26:31.731</t>
-  </si>
-  <si>
-    <t>21:26:34.411</t>
-  </si>
-  <si>
-    <t>21:26:48.891</t>
-  </si>
-  <si>
-    <t>21:26:37.331</t>
-  </si>
-  <si>
-    <t>21:26:52.291</t>
-  </si>
-  <si>
-    <t>21:26:48.291</t>
-  </si>
-  <si>
-    <t>21:26:57.651</t>
-  </si>
-  <si>
-    <t>21:26:55.771</t>
-  </si>
-  <si>
-    <t>21:26:57.091</t>
-  </si>
-  <si>
-    <t>21:27:04.811</t>
-  </si>
-  <si>
-    <t>21:27:03.251</t>
-  </si>
-  <si>
-    <t>21:27:05.811</t>
-  </si>
-  <si>
-    <t>21:26:58.091</t>
-  </si>
-  <si>
-    <t>21:27:16.571</t>
-  </si>
-  <si>
-    <t>21:27:05.691</t>
-  </si>
-  <si>
-    <t>21:27:19.251</t>
-  </si>
-  <si>
-    <t>21:27:21.171</t>
-  </si>
-  <si>
-    <t>21:27:18.051</t>
-  </si>
-  <si>
-    <t>21:27:23.411</t>
-  </si>
-  <si>
-    <t>21:27:10.251</t>
-  </si>
-  <si>
-    <t>21:27:23.691</t>
-  </si>
-  <si>
-    <t>21:27:22.771</t>
-  </si>
-  <si>
-    <t>21:27:22.131</t>
-  </si>
-  <si>
-    <t>21:27:23.851</t>
-  </si>
-  <si>
-    <t>21:27:24.691</t>
-  </si>
-  <si>
-    <t>21:27:25.931</t>
-  </si>
-  <si>
-    <t>21:27:27.451</t>
-  </si>
-  <si>
-    <t>21:27:29.051</t>
-  </si>
-  <si>
-    <t>21:27:31.011</t>
-  </si>
-  <si>
-    <t>21:27:25.611</t>
-  </si>
-  <si>
-    <t>21:27:33.171</t>
-  </si>
-  <si>
-    <t>21:27:27.171</t>
-  </si>
-  <si>
-    <t>21:27:35.851</t>
-  </si>
-  <si>
-    <t>21:27:20.811</t>
-  </si>
-  <si>
-    <t>21:27:37.331</t>
-  </si>
-  <si>
-    <t>21:27:39.131</t>
-  </si>
-  <si>
-    <t>21:27:43.091</t>
-  </si>
-  <si>
-    <t>21:27:45.011</t>
-  </si>
-  <si>
-    <t>21:27:50.011</t>
-  </si>
-  <si>
-    <t>21:27:54.531</t>
-  </si>
-  <si>
-    <t>21:27:53.291</t>
-  </si>
-  <si>
-    <t>21:27:54.851</t>
-  </si>
-  <si>
-    <t>21:27:55.091</t>
-  </si>
-  <si>
-    <t>21:27:55.571</t>
-  </si>
-  <si>
-    <t>21:27:56.091</t>
-  </si>
-  <si>
-    <t>21:27:55.811</t>
-  </si>
-  <si>
-    <t>21:27:29.491</t>
-  </si>
-  <si>
-    <t>21:27:59.211</t>
-  </si>
-  <si>
-    <t>21:27:59.571</t>
-  </si>
-  <si>
-    <t>21:27:59.331</t>
-  </si>
-  <si>
-    <t>21:27:56.691</t>
-  </si>
-  <si>
-    <t>21:28:01.011</t>
-  </si>
-  <si>
-    <t>21:27:29.771</t>
-  </si>
-  <si>
-    <t>21:28:03.931</t>
-  </si>
-  <si>
-    <t>21:27:57.491</t>
-  </si>
-  <si>
-    <t>21:28:08.891</t>
-  </si>
-  <si>
-    <t>21:27:59.651</t>
-  </si>
-  <si>
-    <t>21:28:13.811</t>
-  </si>
-  <si>
-    <t>21:28:25.371</t>
-  </si>
-  <si>
-    <t>21:28:18.011</t>
-  </si>
-  <si>
-    <t>21:28:02.291</t>
-  </si>
-  <si>
-    <t>21:28:54.211</t>
-  </si>
-  <si>
-    <t>21:28:54.251</t>
-  </si>
-  <si>
-    <t>21:29:05.451</t>
-  </si>
-  <si>
-    <t>21:29:19.771</t>
-  </si>
-  <si>
-    <t>21:29:23.131</t>
-  </si>
-  <si>
-    <t>21:29:22.531</t>
-  </si>
-  <si>
-    <t>21:29:23.971</t>
-  </si>
-  <si>
-    <t>21:29:24.011</t>
-  </si>
-  <si>
-    <t>21:29:24.891</t>
-  </si>
-  <si>
-    <t>21:29:25.491</t>
-  </si>
-  <si>
-    <t>21:29:26.971</t>
-  </si>
-  <si>
-    <t>21:29:28.691</t>
-  </si>
-  <si>
-    <t>21:29:25.331</t>
-  </si>
-  <si>
-    <t>21:29:28.051</t>
-  </si>
-  <si>
-    <t>21:29:31.171</t>
-  </si>
-  <si>
-    <t>21:29:23.171</t>
-  </si>
-  <si>
-    <t>21:29:19.571</t>
-  </si>
-  <si>
-    <t>21:29:37.651</t>
-  </si>
-  <si>
-    <t>21:29:42.931</t>
-  </si>
-  <si>
-    <t>21:29:31.331</t>
-  </si>
-  <si>
-    <t>21:29:39.931</t>
-  </si>
-  <si>
-    <t>21:29:56.331</t>
-  </si>
-  <si>
-    <t>21:29:57.211</t>
-  </si>
-  <si>
-    <t>21:30:01.731</t>
-  </si>
-  <si>
-    <t>21:30:03.051</t>
-  </si>
-  <si>
-    <t>21:30:05.011</t>
-  </si>
-  <si>
-    <t>21:30:07.211</t>
-  </si>
-  <si>
-    <t>21:30:10.571</t>
-  </si>
-  <si>
-    <t>21:30:03.331</t>
-  </si>
-  <si>
-    <t>21:29:59.451</t>
-  </si>
-  <si>
-    <t>21:29:54.731</t>
-  </si>
-  <si>
-    <t>21:29:59.051</t>
-  </si>
-  <si>
-    <t>21:30:12.891</t>
-  </si>
-  <si>
-    <t>21:30:12.411</t>
-  </si>
-  <si>
-    <t>21:30:12.251</t>
-  </si>
-  <si>
-    <t>21:30:14.851</t>
-  </si>
-  <si>
-    <t>21:30:15.131</t>
-  </si>
-  <si>
-    <t>21:30:13.891</t>
-  </si>
-  <si>
-    <t>21:30:16.371</t>
-  </si>
-  <si>
-    <t>21:30:19.491</t>
-  </si>
-  <si>
-    <t>21:30:21.091</t>
-  </si>
-  <si>
-    <t>21:30:15.931</t>
-  </si>
-  <si>
-    <t>21:30:23.731</t>
-  </si>
-  <si>
-    <t>21:30:23.611</t>
-  </si>
-  <si>
-    <t>21:30:25.331</t>
-  </si>
-  <si>
-    <t>21:30:25.771</t>
-  </si>
-  <si>
-    <t>21:30:25.491</t>
-  </si>
-  <si>
-    <t>21:30:27.611</t>
-  </si>
-  <si>
-    <t>21:30:30.691</t>
-  </si>
-  <si>
-    <t>21:25:36.211</t>
-  </si>
-  <si>
-    <t>21:25:39.731</t>
-  </si>
-  <si>
-    <t>21:25:49.491</t>
-  </si>
-  <si>
-    <t>21:25:56.851</t>
-  </si>
-  <si>
-    <t>21:26:03.731</t>
-  </si>
-  <si>
-    <t>21:26:07.691</t>
-  </si>
-  <si>
-    <t>21:26:08.931</t>
-  </si>
-  <si>
-    <t>21:26:14.411</t>
-  </si>
-  <si>
-    <t>21:26:14.371</t>
-  </si>
-  <si>
-    <t>21:26:22.411</t>
-  </si>
-  <si>
-    <t>21:26:24.931</t>
-  </si>
-  <si>
-    <t>21:26:25.171</t>
-  </si>
-  <si>
-    <t>21:26:28.371</t>
-  </si>
-  <si>
-    <t>21:26:29.131</t>
-  </si>
-  <si>
-    <t>21:26:30.491</t>
-  </si>
-  <si>
-    <t>21:26:32.891</t>
-  </si>
-  <si>
-    <t>21:26:34.291</t>
-  </si>
-  <si>
-    <t>21:26:37.771</t>
-  </si>
-  <si>
-    <t>21:26:44.451</t>
-  </si>
-  <si>
-    <t>21:26:49.811</t>
-  </si>
-  <si>
-    <t>21:26:53.371</t>
-  </si>
-  <si>
-    <t>21:26:55.651</t>
-  </si>
-  <si>
-    <t>21:26:58.651</t>
-  </si>
-  <si>
-    <t>21:27:01.291</t>
-  </si>
-  <si>
-    <t>21:27:03.011</t>
-  </si>
-  <si>
-    <t>21:27:06.011</t>
-  </si>
-  <si>
-    <t>21:27:06.251</t>
-  </si>
-  <si>
-    <t>21:27:06.531</t>
-  </si>
-  <si>
-    <t>21:27:14.331</t>
-  </si>
-  <si>
-    <t>21:27:17.451</t>
-  </si>
-  <si>
-    <t>21:27:17.411</t>
-  </si>
-  <si>
-    <t>21:27:20.171</t>
-  </si>
-  <si>
-    <t>21:27:22.331</t>
-  </si>
-  <si>
-    <t>21:27:22.731</t>
-  </si>
-  <si>
-    <t>21:27:23.611</t>
-  </si>
-  <si>
-    <t>21:27:23.651</t>
-  </si>
-  <si>
-    <t>21:27:23.771</t>
-  </si>
-  <si>
-    <t>21:27:23.811</t>
-  </si>
-  <si>
-    <t>21:27:24.371</t>
-  </si>
-  <si>
-    <t>21:27:24.571</t>
-  </si>
-  <si>
-    <t>21:27:24.811</t>
-  </si>
-  <si>
-    <t>21:27:26.051</t>
-  </si>
-  <si>
-    <t>21:27:28.491</t>
-  </si>
-  <si>
-    <t>21:27:29.731</t>
-  </si>
-  <si>
-    <t>21:27:31.811</t>
-  </si>
-  <si>
-    <t>21:27:33.611</t>
-  </si>
-  <si>
-    <t>21:27:34.371</t>
-  </si>
-  <si>
-    <t>21:27:36.411</t>
-  </si>
-  <si>
-    <t>21:27:37.371</t>
-  </si>
-  <si>
-    <t>21:27:38.811</t>
-  </si>
-  <si>
-    <t>21:27:40.411</t>
-  </si>
-  <si>
-    <t>21:27:44.091</t>
-  </si>
-  <si>
-    <t>21:27:45.771</t>
-  </si>
-  <si>
-    <t>21:27:50.771</t>
-  </si>
-  <si>
-    <t>21:27:54.731</t>
-  </si>
-  <si>
-    <t>21:27:54.811</t>
-  </si>
-  <si>
-    <t>21:27:54.891</t>
-  </si>
-  <si>
-    <t>21:27:55.171</t>
-  </si>
-  <si>
-    <t>21:27:57.251</t>
-  </si>
-  <si>
-    <t>21:27:58.651</t>
-  </si>
-  <si>
-    <t>21:27:58.771</t>
-  </si>
-  <si>
-    <t>21:27:59.411</t>
-  </si>
-  <si>
-    <t>21:27:59.611</t>
-  </si>
-  <si>
-    <t>21:28:00.771</t>
-  </si>
-  <si>
-    <t>21:28:00.891</t>
-  </si>
-  <si>
-    <t>21:28:02.051</t>
-  </si>
-  <si>
-    <t>21:28:03.611</t>
-  </si>
-  <si>
-    <t>21:28:04.931</t>
-  </si>
-  <si>
-    <t>21:28:06.211</t>
-  </si>
-  <si>
-    <t>21:28:09.851</t>
-  </si>
-  <si>
-    <t>21:28:13.731</t>
-  </si>
-  <si>
-    <t>21:28:15.011</t>
-  </si>
-  <si>
-    <t>21:28:26.531</t>
-  </si>
-  <si>
-    <t>21:28:31.531</t>
-  </si>
-  <si>
-    <t>21:28:31.851</t>
-  </si>
-  <si>
-    <t>21:28:54.531</t>
-  </si>
-  <si>
-    <t>21:28:55.531</t>
-  </si>
-  <si>
-    <t>21:29:06.731</t>
-  </si>
-  <si>
-    <t>21:29:21.171</t>
-  </si>
-  <si>
-    <t>21:29:23.411</t>
-  </si>
-  <si>
-    <t>21:29:23.931</t>
-  </si>
-  <si>
-    <t>21:29:24.571</t>
-  </si>
-  <si>
-    <t>21:29:25.131</t>
-  </si>
-  <si>
-    <t>21:29:27.171</t>
-  </si>
-  <si>
-    <t>21:29:28.371</t>
-  </si>
-  <si>
-    <t>21:29:30.131</t>
-  </si>
-  <si>
-    <t>21:29:31.251</t>
-  </si>
-  <si>
-    <t>21:29:31.291</t>
-  </si>
-  <si>
-    <t>21:29:32.491</t>
-  </si>
-  <si>
-    <t>21:29:36.251</t>
-  </si>
-  <si>
-    <t>21:29:36.971</t>
-  </si>
-  <si>
-    <t>21:29:38.611</t>
-  </si>
-  <si>
-    <t>21:29:43.891</t>
-  </si>
-  <si>
-    <t>21:29:45.211</t>
-  </si>
-  <si>
-    <t>21:29:50.011</t>
-  </si>
-  <si>
-    <t>21:29:57.291</t>
-  </si>
-  <si>
-    <t>21:29:58.571</t>
-  </si>
-  <si>
-    <t>21:30:02.931</t>
-  </si>
-  <si>
-    <t>21:30:04.091</t>
-  </si>
-  <si>
-    <t>21:30:06.291</t>
-  </si>
-  <si>
-    <t>21:30:08.491</t>
-  </si>
-  <si>
-    <t>21:30:11.731</t>
-  </si>
-  <si>
-    <t>21:30:11.771</t>
-  </si>
-  <si>
-    <t>21:30:12.491</t>
-  </si>
-  <si>
-    <t>21:30:12.851</t>
-  </si>
-  <si>
-    <t>21:30:12.971</t>
-  </si>
-  <si>
-    <t>21:30:13.731</t>
-  </si>
-  <si>
-    <t>21:30:14.691</t>
-  </si>
-  <si>
-    <t>21:30:14.891</t>
-  </si>
-  <si>
-    <t>21:30:15.371</t>
-  </si>
-  <si>
-    <t>21:30:15.411</t>
-  </si>
-  <si>
-    <t>21:30:17.771</t>
-  </si>
-  <si>
-    <t>21:30:20.611</t>
-  </si>
-  <si>
-    <t>21:30:22.051</t>
-  </si>
-  <si>
-    <t>21:30:23.531</t>
-  </si>
-  <si>
-    <t>21:30:25.571</t>
-  </si>
-  <si>
-    <t>21:30:25.611</t>
-  </si>
-  <si>
-    <t>21:30:25.851</t>
-  </si>
-  <si>
-    <t>21:30:25.891</t>
-  </si>
-  <si>
-    <t>21:30:26.291</t>
-  </si>
-  <si>
-    <t>21:30:28.331</t>
-  </si>
-  <si>
-    <t>21:30:31.091</t>
+    <t>00:00:57.476</t>
+  </si>
+  <si>
+    <t>00:00:59.236</t>
+  </si>
+  <si>
+    <t>00:01:08.036</t>
+  </si>
+  <si>
+    <t>00:01:09.796</t>
+  </si>
+  <si>
+    <t>00:01:27.436</t>
+  </si>
+  <si>
+    <t>00:01:28.836</t>
+  </si>
+  <si>
+    <t>00:01:31.316</t>
+  </si>
+  <si>
+    <t>00:01:32.676</t>
+  </si>
+  <si>
+    <t>00:01:38.356</t>
+  </si>
+  <si>
+    <t>00:01:28.676</t>
+  </si>
+  <si>
+    <t>00:01:21.436</t>
+  </si>
+  <si>
+    <t>00:01:43.676</t>
+  </si>
+  <si>
+    <t>00:01:46.076</t>
+  </si>
+  <si>
+    <t>00:01:34.876</t>
+  </si>
+  <si>
+    <t>00:01:45.956</t>
+  </si>
+  <si>
+    <t>00:01:35.956</t>
+  </si>
+  <si>
+    <t>00:01:48.956</t>
+  </si>
+  <si>
+    <t>00:01:52.116</t>
+  </si>
+  <si>
+    <t>00:01:54.116</t>
+  </si>
+  <si>
+    <t>00:01:53.996</t>
+  </si>
+  <si>
+    <t>00:01:55.116</t>
+  </si>
+  <si>
+    <t>00:01:58.756</t>
+  </si>
+  <si>
+    <t>00:02:13.396</t>
+  </si>
+  <si>
+    <t>00:02:11.356</t>
+  </si>
+  <si>
+    <t>00:02:12.996</t>
+  </si>
+  <si>
+    <t>00:02:16.836</t>
+  </si>
+  <si>
+    <t>00:02:20.396</t>
+  </si>
+  <si>
+    <t>00:02:21.756</t>
+  </si>
+  <si>
+    <t>00:02:29.196</t>
+  </si>
+  <si>
+    <t>00:02:27.836</t>
+  </si>
+  <si>
+    <t>00:02:30.236</t>
+  </si>
+  <si>
+    <t>00:02:22.316</t>
+  </si>
+  <si>
+    <t>00:02:30.276</t>
+  </si>
+  <si>
+    <t>00:02:40.996</t>
+  </si>
+  <si>
+    <t>00:02:22.236</t>
+  </si>
+  <si>
+    <t>00:02:43.836</t>
+  </si>
+  <si>
+    <t>00:02:45.796</t>
+  </si>
+  <si>
+    <t>00:02:42.716</t>
+  </si>
+  <si>
+    <t>00:02:47.956</t>
+  </si>
+  <si>
+    <t>00:02:48.156</t>
+  </si>
+  <si>
+    <t>00:02:48.236</t>
+  </si>
+  <si>
+    <t>00:02:47.356</t>
+  </si>
+  <si>
+    <t>00:02:46.676</t>
+  </si>
+  <si>
+    <t>00:02:48.356</t>
+  </si>
+  <si>
+    <t>00:02:49.196</t>
+  </si>
+  <si>
+    <t>00:02:49.276</t>
+  </si>
+  <si>
+    <t>00:02:50.516</t>
+  </si>
+  <si>
+    <t>00:02:38.596</t>
+  </si>
+  <si>
+    <t>00:02:52.076</t>
+  </si>
+  <si>
+    <t>00:02:53.756</t>
+  </si>
+  <si>
+    <t>00:02:55.596</t>
+  </si>
+  <si>
+    <t>00:02:54.356</t>
+  </si>
+  <si>
+    <t>00:02:57.676</t>
+  </si>
+  <si>
+    <t>00:02:51.756</t>
+  </si>
+  <si>
+    <t>00:03:00.556</t>
+  </si>
+  <si>
+    <t>00:02:56.196</t>
+  </si>
+  <si>
+    <t>00:03:01.916</t>
+  </si>
+  <si>
+    <t>00:02:45.316</t>
+  </si>
+  <si>
+    <t>00:03:07.716</t>
+  </si>
+  <si>
+    <t>00:03:07.636</t>
+  </si>
+  <si>
+    <t>00:03:19.116</t>
+  </si>
+  <si>
+    <t>00:03:17.876</t>
+  </si>
+  <si>
+    <t>00:03:19.276</t>
+  </si>
+  <si>
+    <t>00:03:19.396</t>
+  </si>
+  <si>
+    <t>00:03:19.476</t>
+  </si>
+  <si>
+    <t>00:03:19.676</t>
+  </si>
+  <si>
+    <t>00:03:20.156</t>
+  </si>
+  <si>
+    <t>00:03:20.676</t>
+  </si>
+  <si>
+    <t>00:03:20.236</t>
+  </si>
+  <si>
+    <t>00:03:23.796</t>
+  </si>
+  <si>
+    <t>00:03:23.996</t>
+  </si>
+  <si>
+    <t>00:03:21.316</t>
+  </si>
+  <si>
+    <t>00:03:25.676</t>
+  </si>
+  <si>
+    <t>00:03:08.796</t>
+  </si>
+  <si>
+    <t>00:03:28.436</t>
+  </si>
+  <si>
+    <t>00:03:22.156</t>
+  </si>
+  <si>
+    <t>00:03:30.796</t>
+  </si>
+  <si>
+    <t>00:03:33.476</t>
+  </si>
+  <si>
+    <t>00:03:24.236</t>
+  </si>
+  <si>
+    <t>00:03:37.676</t>
+  </si>
+  <si>
+    <t>00:03:38.076</t>
+  </si>
+  <si>
+    <t>00:03:49.916</t>
+  </si>
+  <si>
+    <t>00:03:42.556</t>
+  </si>
+  <si>
+    <t>00:03:35.516</t>
+  </si>
+  <si>
+    <t>00:04:18.796</t>
+  </si>
+  <si>
+    <t>00:04:18.916</t>
+  </si>
+  <si>
+    <t>00:04:19.316</t>
+  </si>
+  <si>
+    <t>00:04:25.636</t>
+  </si>
+  <si>
+    <t>00:04:44.236</t>
+  </si>
+  <si>
+    <t>00:04:47.716</t>
+  </si>
+  <si>
+    <t>00:04:47.276</t>
+  </si>
+  <si>
+    <t>00:04:50.076</t>
+  </si>
+  <si>
+    <t>00:04:51.516</t>
+  </si>
+  <si>
+    <t>00:04:53.236</t>
+  </si>
+  <si>
+    <t>00:04:55.716</t>
+  </si>
+  <si>
+    <t>00:05:00.556</t>
+  </si>
+  <si>
+    <t>00:05:02.356</t>
+  </si>
+  <si>
+    <t>00:05:07.396</t>
+  </si>
+  <si>
+    <t>00:04:52.596</t>
+  </si>
+  <si>
+    <t>00:05:13.796</t>
+  </si>
+  <si>
+    <t>00:05:18.236</t>
+  </si>
+  <si>
+    <t>00:05:20.876</t>
+  </si>
+  <si>
+    <t>00:05:21.796</t>
+  </si>
+  <si>
+    <t>00:05:21.916</t>
+  </si>
+  <si>
+    <t>00:05:23.036</t>
+  </si>
+  <si>
+    <t>00:05:26.276</t>
+  </si>
+  <si>
+    <t>00:05:27.716</t>
+  </si>
+  <si>
+    <t>00:05:31.716</t>
+  </si>
+  <si>
+    <t>00:05:34.836</t>
+  </si>
+  <si>
+    <t>00:05:26.156</t>
+  </si>
+  <si>
+    <t>00:05:13.756</t>
+  </si>
+  <si>
+    <t>00:05:33.956</t>
+  </si>
+  <si>
+    <t>00:05:23.596</t>
+  </si>
+  <si>
+    <t>00:05:37.476</t>
+  </si>
+  <si>
+    <t>00:05:36.996</t>
+  </si>
+  <si>
+    <t>00:05:36.836</t>
+  </si>
+  <si>
+    <t>00:05:39.436</t>
+  </si>
+  <si>
+    <t>00:05:39.676</t>
+  </si>
+  <si>
+    <t>00:05:38.436</t>
+  </si>
+  <si>
+    <t>00:05:39.556</t>
+  </si>
+  <si>
+    <t>00:05:41.156</t>
+  </si>
+  <si>
+    <t>00:05:40.516</t>
+  </si>
+  <si>
+    <t>00:05:45.676</t>
+  </si>
+  <si>
+    <t>00:05:48.516</t>
+  </si>
+  <si>
+    <t>00:05:48.156</t>
+  </si>
+  <si>
+    <t>00:05:49.916</t>
+  </si>
+  <si>
+    <t>00:05:50.116</t>
+  </si>
+  <si>
+    <t>00:05:44.196</t>
+  </si>
+  <si>
+    <t>00:05:52.236</t>
+  </si>
+  <si>
+    <t>00:05:55.316</t>
+  </si>
+  <si>
+    <t>00:01:00.836</t>
+  </si>
+  <si>
+    <t>00:01:04.316</t>
+  </si>
+  <si>
+    <t>00:01:14.156</t>
+  </si>
+  <si>
+    <t>00:01:28.276</t>
+  </si>
+  <si>
+    <t>00:01:29.796</t>
+  </si>
+  <si>
+    <t>00:01:32.116</t>
+  </si>
+  <si>
+    <t>00:01:33.316</t>
+  </si>
+  <si>
+    <t>00:01:39.116</t>
+  </si>
+  <si>
+    <t>00:01:39.036</t>
+  </si>
+  <si>
+    <t>00:01:39.316</t>
+  </si>
+  <si>
+    <t>00:01:44.756</t>
+  </si>
+  <si>
+    <t>00:01:46.996</t>
+  </si>
+  <si>
+    <t>00:01:47.516</t>
+  </si>
+  <si>
+    <t>00:01:49.556</t>
+  </si>
+  <si>
+    <t>00:01:49.636</t>
+  </si>
+  <si>
+    <t>00:01:49.756</t>
+  </si>
+  <si>
+    <t>00:01:53.596</t>
+  </si>
+  <si>
+    <t>00:01:57.476</t>
+  </si>
+  <si>
+    <t>00:02:01.916</t>
+  </si>
+  <si>
+    <t>00:02:08.876</t>
+  </si>
+  <si>
+    <t>00:02:13.996</t>
+  </si>
+  <si>
+    <t>00:02:23.236</t>
+  </si>
+  <si>
+    <t>00:02:25.556</t>
+  </si>
+  <si>
+    <t>00:02:27.596</t>
+  </si>
+  <si>
+    <t>00:02:30.356</t>
+  </si>
+  <si>
+    <t>00:02:30.756</t>
+  </si>
+  <si>
+    <t>00:02:30.996</t>
+  </si>
+  <si>
+    <t>00:02:41.956</t>
+  </si>
+  <si>
+    <t>00:02:42.236</t>
+  </si>
+  <si>
+    <t>00:02:42.396</t>
+  </si>
+  <si>
+    <t>00:02:44.876</t>
+  </si>
+  <si>
+    <t>00:02:46.876</t>
+  </si>
+  <si>
+    <t>00:02:47.316</t>
+  </si>
+  <si>
+    <t>00:02:48.196</t>
+  </si>
+  <si>
+    <t>00:02:48.396</t>
+  </si>
+  <si>
+    <t>00:02:48.916</t>
+  </si>
+  <si>
+    <t>00:02:49.156</t>
+  </si>
+  <si>
+    <t>00:02:49.236</t>
+  </si>
+  <si>
+    <t>00:02:49.356</t>
+  </si>
+  <si>
+    <t>00:02:50.636</t>
+  </si>
+  <si>
+    <t>00:02:51.996</t>
+  </si>
+  <si>
+    <t>00:02:53.036</t>
+  </si>
+  <si>
+    <t>00:02:56.716</t>
+  </si>
+  <si>
+    <t>00:02:58.196</t>
+  </si>
+  <si>
+    <t>00:02:58.956</t>
+  </si>
+  <si>
+    <t>00:03:00.916</t>
+  </si>
+  <si>
+    <t>00:03:01.956</t>
+  </si>
+  <si>
+    <t>00:03:03.436</t>
+  </si>
+  <si>
+    <t>00:03:04.796</t>
+  </si>
+  <si>
+    <t>00:03:08.716</t>
+  </si>
+  <si>
+    <t>00:03:10.716</t>
+  </si>
+  <si>
+    <t>00:03:19.196</t>
+  </si>
+  <si>
+    <t>00:03:19.316</t>
+  </si>
+  <si>
+    <t>00:03:19.356</t>
+  </si>
+  <si>
+    <t>00:03:19.436</t>
+  </si>
+  <si>
+    <t>00:03:19.556</t>
+  </si>
+  <si>
+    <t>00:03:19.756</t>
+  </si>
+  <si>
+    <t>00:03:22.436</t>
+  </si>
+  <si>
+    <t>00:03:23.356</t>
+  </si>
+  <si>
+    <t>00:03:25.436</t>
+  </si>
+  <si>
+    <t>00:03:26.436</t>
+  </si>
+  <si>
+    <t>00:03:28.196</t>
+  </si>
+  <si>
+    <t>00:03:29.516</t>
+  </si>
+  <si>
+    <t>00:03:33.156</t>
+  </si>
+  <si>
+    <t>00:03:34.356</t>
+  </si>
+  <si>
+    <t>00:03:37.636</t>
+  </si>
+  <si>
+    <t>00:03:37.716</t>
+  </si>
+  <si>
+    <t>00:03:47.796</t>
+  </si>
+  <si>
+    <t>00:03:51.076</t>
+  </si>
+  <si>
+    <t>00:03:56.076</t>
+  </si>
+  <si>
+    <t>00:03:56.436</t>
+  </si>
+  <si>
+    <t>00:04:18.876</t>
+  </si>
+  <si>
+    <t>00:04:19.276</t>
+  </si>
+  <si>
+    <t>00:04:19.436</t>
+  </si>
+  <si>
+    <t>00:04:30.596</t>
+  </si>
+  <si>
+    <t>00:04:45.636</t>
+  </si>
+  <si>
+    <t>00:04:47.756</t>
+  </si>
+  <si>
+    <t>00:04:48.356</t>
+  </si>
+  <si>
+    <t>00:04:51.596</t>
+  </si>
+  <si>
+    <t>00:04:52.876</t>
+  </si>
+  <si>
+    <t>00:04:54.476</t>
+  </si>
+  <si>
+    <t>00:04:56.916</t>
+  </si>
+  <si>
+    <t>00:05:00.836</t>
+  </si>
+  <si>
+    <t>00:05:01.476</t>
+  </si>
+  <si>
+    <t>00:05:03.356</t>
+  </si>
+  <si>
+    <t>00:05:08.556</t>
+  </si>
+  <si>
+    <t>00:05:09.516</t>
+  </si>
+  <si>
+    <t>00:05:14.676</t>
+  </si>
+  <si>
+    <t>00:05:19.636</t>
+  </si>
+  <si>
+    <t>00:05:22.996</t>
+  </si>
+  <si>
+    <t>00:05:24.036</t>
+  </si>
+  <si>
+    <t>00:05:27.076</t>
+  </si>
+  <si>
+    <t>00:05:27.436</t>
+  </si>
+  <si>
+    <t>00:05:29.076</t>
+  </si>
+  <si>
+    <t>00:05:33.076</t>
+  </si>
+  <si>
+    <t>00:05:36.316</t>
+  </si>
+  <si>
+    <t>00:05:36.356</t>
+  </si>
+  <si>
+    <t>00:05:37.076</t>
+  </si>
+  <si>
+    <t>00:05:37.436</t>
+  </si>
+  <si>
+    <t>00:05:37.556</t>
+  </si>
+  <si>
+    <t>00:05:38.356</t>
+  </si>
+  <si>
+    <t>00:05:39.316</t>
+  </si>
+  <si>
+    <t>00:05:39.476</t>
+  </si>
+  <si>
+    <t>00:05:39.916</t>
+  </si>
+  <si>
+    <t>00:05:39.636</t>
+  </si>
+  <si>
+    <t>00:05:40.596</t>
+  </si>
+  <si>
+    <t>00:05:42.396</t>
+  </si>
+  <si>
+    <t>00:05:45.316</t>
+  </si>
+  <si>
+    <t>00:05:46.836</t>
+  </si>
+  <si>
+    <t>00:05:50.076</t>
+  </si>
+  <si>
+    <t>00:05:50.516</t>
+  </si>
+  <si>
+    <t>00:05:51.036</t>
+  </si>
+  <si>
+    <t>00:05:51.156</t>
+  </si>
+  <si>
+    <t>00:05:52.796</t>
+  </si>
+  <si>
+    <t>00:05:56.276</t>
   </si>
   <si>
     <t>Date</t>
@@ -1237,7 +1237,7 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>05/14/2025</t>
+    <t>05/16/2025</t>
   </si>
   <si>
     <t>00:00:00 - 00:15:00</t>
@@ -1873,394 +1873,403 @@
     <t>D0,M,L</t>
   </si>
   <si>
-    <t>D1,250514,0000000,250514,235959999,250514,0000000</t>
+    <t>D1,250516,0000000,250516,235959999,250516,0000000</t>
   </si>
   <si>
     <t>L0,12,12,4</t>
   </si>
   <si>
-    <t>10,9,1,0,250514,212536211,1,1,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212539731,12,12,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212549491,10,10,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212556851,10,10,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212603731,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212607691,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212608931,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212614371,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212614411,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212622411,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212624931,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212625171,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212628371,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212629131,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212630491,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212632891,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212634291,8,8,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212637771,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212644451,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212649811,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212652291,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212653371,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212655651,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212658651,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212701291,10,10,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212703011,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212706011,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212706251,2,2,1,9C,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212706531,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212714331,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212717411,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212717451,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212720171,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212722331,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212722731,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212723611,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212723651,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212723771,4,4,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212723811,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212724371,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212724571,3,3,1,13,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212724811,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212726051,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212728491,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212729731,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212731811,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212733611,8,8,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212734371,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212736411,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212737331,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212737371,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212738811,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212740411,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212744091,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212745771,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212750771,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212754731,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212754811,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212754891,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212755171,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212755811,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212757251,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212758651,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212758771,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212759411,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212759611,4,4,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212800771,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212800891,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212802051,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212803611,8,8,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212804931,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212806211,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212809851,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212813731,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212815011,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212826531,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212831531,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212831851,8,8,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212854531,3,3,1,9C,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212855531,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212906731,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212921171,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212923411,3,3,1,11,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212923931,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212924571,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212924891,3,3,1,11,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212925131,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212927171,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212928371,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212930131,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212931251,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212931291,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212932491,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212936251,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212936971,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212938611,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212943891,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212945211,6,6,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212950011,2,2,1,2T,2,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212957291,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,212958571,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213002931,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213004091,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213006291,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213008491,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213011731,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213011771,2,2,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213012411,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213012491,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213012851,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213012971,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213013731,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213014691,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213014891,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213015371,3,3,1,9P,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213015411,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213016371,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213017771,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213020611,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213022051,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213023531,4,4,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213025571,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213025611,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213025851,3,3,1,11,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213025891,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213026291,2,2,1,1,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213028331,2,2,1,13,1</t>
-  </si>
-  <si>
-    <t>10,9,1,0,250514,213031091,2,2,1,1,1</t>
+    <t>10,9,1,0,250516,000100836,1,1,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000104316,12,12,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000114156,10,10,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000121436,10,10,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000128276,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000129796,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000132116,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000133316,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000139036,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000139116,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000139316,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000144756,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000146996,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000147516,4,4,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000149556,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000149636,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000149756,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000153596,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000155116,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000157476,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000201916,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000208876,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000213996,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000216836,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000220396,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000223236,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000225556,10,10,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000227596,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000230356,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000230756,2,2,1,9C,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000230996,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000238596,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000241956,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000242236,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000242396,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000244876,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000246876,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000247316,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000248196,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000248236,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000248356,4,4,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000248396,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000248916,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000249156,3,3,1,13,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000249236,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000249356,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000250636,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000251996,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000253036,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000254356,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000256716,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000258196,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000258956,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000300916,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000301916,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000301956,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000303436,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000304796,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000308716,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000310716,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000319196,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000319316,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000319356,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000319436,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000319556,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000319756,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000320236,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000322436,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000323356,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000323996,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000324236,4,4,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000325436,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000326436,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000328196,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000329516,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000330796,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000333156,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000334356,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000337636,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000337716,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000347796,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000351076,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000356076,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000356436,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000418876,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000419276,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000419436,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000430596,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000445636,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000447756,3,3,1,11,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000448356,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000451596,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000452876,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000454476,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000456916,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000500836,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000501476,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000503356,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000508556,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000509516,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000514676,2,2,1,2T,2,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000519636,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000521916,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000522996,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000524036,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000527076,8,8,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000527436,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000529076,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000533076,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000536316,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000536356,2,2,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000536996,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000537076,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000537436,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000537556,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000538356,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000539316,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000539476,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000539636,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000539916,3,3,1,9P,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000540596,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000542396,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000545316,4,4,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000546836,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000550076,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000550116,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000550516,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000551036,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000551156,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000552796,2,2,1,13,1</t>
+  </si>
+  <si>
+    <t>10,9,1,0,250516,000556276,2,2,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2667,25 +2676,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H2">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2693,25 +2702,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H3">
-        <v>5.16</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2719,22 +2728,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H4">
         <v>6.12</v>
@@ -2745,25 +2754,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="H5">
-        <v>11.72</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2771,25 +2780,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2797,25 +2806,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H7">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2823,25 +2832,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H8">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2849,22 +2858,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H9">
         <v>0.64</v>
@@ -2875,25 +2884,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H10">
-        <v>10.28</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2901,25 +2910,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H11">
-        <v>8.76</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2927,25 +2936,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H12">
-        <v>10.28</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2953,25 +2962,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H13">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2979,25 +2988,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3005,25 +3014,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>1.48</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3031,25 +3040,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H16">
-        <v>0.96</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3057,25 +3066,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H17">
-        <v>1.08</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3083,25 +3092,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H18">
-        <v>13.08</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3109,25 +3118,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H19">
-        <v>6.04</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3135,25 +3144,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="H20">
-        <v>10.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3161,25 +3170,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H21">
-        <v>0.92</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3187,25 +3196,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="H22">
-        <v>14.96</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3213,25 +3222,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H23">
-        <v>1.08</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3239,25 +3248,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H24">
-        <v>7.36</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3265,25 +3274,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3291,25 +3300,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="H26">
-        <v>5.52</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3317,25 +3326,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H27">
-        <v>5.92</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3343,25 +3352,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G28" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H28">
-        <v>1.2</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3369,25 +3378,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3395,25 +3404,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H30">
-        <v>0.72</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3421,25 +3430,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G31" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H31">
-        <v>16.24</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3447,25 +3456,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G32" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H32">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3473,25 +3482,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="H33">
-        <v>11.72</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3499,25 +3508,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H34">
-        <v>0.92</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3525,25 +3534,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H35">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3551,25 +3560,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H36">
-        <v>4.68</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3577,25 +3586,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3603,25 +3612,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G38" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H38">
-        <v>13.4</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3629,25 +3638,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G39" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H39">
-        <v>0.08</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3655,25 +3664,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H40">
-        <v>1.04</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3681,25 +3690,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="H41">
-        <v>2.24</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3707,25 +3716,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="H42">
-        <v>0.72</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3733,25 +3742,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H43">
-        <v>0.12</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3759,25 +3768,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H44">
-        <v>0.12</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3785,25 +3794,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H45">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3811,25 +3820,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H46">
-        <v>0.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3837,25 +3846,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H47">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3863,25 +3872,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3889,25 +3898,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H49">
-        <v>1.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3915,25 +3924,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H50">
-        <v>9.24</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3941,25 +3950,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H51">
-        <v>1.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3967,25 +3976,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H52">
-        <v>16.56</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3993,25 +4002,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H53">
-        <v>1.48</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4019,22 +4028,22 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F54" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H54">
         <v>1.28</v>
@@ -4045,25 +4054,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4071,25 +4080,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G56" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="H56">
-        <v>0.76</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4097,25 +4106,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G57" t="s">
         <v>332</v>
       </c>
       <c r="H57">
-        <v>0.76</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4123,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G58" t="s">
         <v>333</v>
       </c>
       <c r="H58">
-        <v>0.2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4149,25 +4158,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G59" t="s">
         <v>334</v>
       </c>
       <c r="H59">
-        <v>1.52</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4175,25 +4184,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G60" t="s">
         <v>335</v>
       </c>
       <c r="H60">
-        <v>0.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4201,25 +4210,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G61" t="s">
         <v>336</v>
       </c>
       <c r="H61">
-        <v>0.08</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4227,25 +4236,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G62" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="H62">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4253,25 +4262,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H63">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4279,25 +4288,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H64">
-        <v>2.84</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4305,25 +4314,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H65">
-        <v>29.28</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4331,25 +4340,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H66">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4357,25 +4366,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F67" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H67">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4383,25 +4392,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G68" t="s">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="H68">
-        <v>1.44</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4409,25 +4418,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G69" t="s">
         <v>343</v>
       </c>
       <c r="H69">
-        <v>4.2</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4435,25 +4444,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G70" t="s">
         <v>344</v>
       </c>
       <c r="H70">
-        <v>1.04</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4461,25 +4470,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G71" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="H71">
-        <v>33.84</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4487,25 +4496,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G72" t="s">
-        <v>346</v>
+        <v>234</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4513,25 +4522,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H73">
-        <v>8.720000000000001</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4539,25 +4548,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G74" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H74">
-        <v>0.96</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4565,25 +4574,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F75" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G75" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H75">
-        <v>14.08</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4591,25 +4600,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G76" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H76">
-        <v>1.2</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4617,25 +4626,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F77" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G77" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H77">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4643,25 +4652,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G78" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="H78">
-        <v>13.52</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4669,25 +4678,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G79" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H79">
-        <v>29.56</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4695,25 +4704,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G80" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H80">
-        <v>0.32</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4721,25 +4730,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G81" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H81">
-        <v>1.28</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4747,25 +4756,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G82" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H82">
-        <v>1.28</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4773,25 +4782,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H83">
-        <v>1.4</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4799,25 +4808,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G84" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H84">
-        <v>0.28</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4825,25 +4834,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G85" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H85">
-        <v>1.4</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4851,25 +4860,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H86">
-        <v>0.6</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4877,25 +4886,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="H87">
-        <v>0.88</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4903,25 +4912,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G88" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H88">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4929,25 +4938,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F89" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H89">
-        <v>1.68</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4955,25 +4964,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F90" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G90" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H90">
-        <v>1.4</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4981,25 +4990,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G91" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H91">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5007,25 +5016,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G92" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H92">
-        <v>5.92</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5033,25 +5042,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F93" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G93" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H93">
-        <v>3.24</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5059,25 +5068,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G94" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H94">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5085,25 +5094,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H95">
-        <v>13.08</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5111,25 +5120,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G96" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H96">
-        <v>17.4</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5137,25 +5146,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F97" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G97" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H97">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5163,25 +5172,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F98" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G98" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H98">
-        <v>0.96</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5189,25 +5198,25 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G99" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H99">
-        <v>13.88</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5221,19 +5230,19 @@
         <v>147</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G100" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H100">
-        <v>10.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5241,25 +5250,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G101" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H101">
-        <v>0.96</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5267,25 +5276,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H102">
-        <v>1.36</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5293,25 +5302,25 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F103" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G103" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H103">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5319,25 +5328,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G104" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H104">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5345,25 +5354,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F105" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G105" t="s">
-        <v>378</v>
+        <v>259</v>
       </c>
       <c r="H105">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5371,25 +5380,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F106" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G106" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H106">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5397,25 +5406,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G107" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H107">
-        <v>1.16</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5423,25 +5432,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F108" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G108" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H108">
-        <v>8.44</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5449,25 +5458,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G109" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="H109">
-        <v>12.96</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5475,25 +5484,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E110" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G110" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H110">
-        <v>17.76</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5501,25 +5510,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E111" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G111" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H111">
-        <v>13.8</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5527,25 +5536,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G112" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H112">
-        <v>0.08</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5553,25 +5562,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F113" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G113" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H113">
-        <v>1.32</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5579,25 +5588,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D114" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E114" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G114" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="H114">
-        <v>2.44</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5605,25 +5614,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E115" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F115" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G115" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H115">
-        <v>0.04</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5631,25 +5640,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D116" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F116" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G116" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H116">
-        <v>0.24</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5657,25 +5666,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F117" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G117" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H117">
-        <v>1.52</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5683,25 +5692,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F118" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
-        <v>268</v>
+        <v>386</v>
       </c>
       <c r="H118">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5709,25 +5718,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F119" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G119" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H119">
-        <v>1.4</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5735,25 +5744,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F120" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G120" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H120">
-        <v>1.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5761,25 +5770,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F121" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G121" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H121">
-        <v>0.96</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5787,25 +5796,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E122" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G122" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H122">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5813,25 +5822,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E123" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F123" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G123" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H123">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5839,25 +5848,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D124" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E124" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F124" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G124" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5865,25 +5874,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F125" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G125" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H125">
-        <v>0.52</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5891,25 +5900,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E126" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G126" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H126">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5917,25 +5926,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F127" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G127" t="s">
-        <v>398</v>
+        <v>282</v>
       </c>
       <c r="H127">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5943,25 +5952,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E128" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F128" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G128" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H128">
-        <v>0.72</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5969,25 +5978,129 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" t="s">
+        <v>155</v>
+      </c>
+      <c r="F129" t="s">
+        <v>281</v>
+      </c>
+      <c r="G129" t="s">
+        <v>396</v>
+      </c>
+      <c r="H129">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" t="s">
+        <v>282</v>
+      </c>
+      <c r="G130" t="s">
+        <v>397</v>
+      </c>
+      <c r="H130">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
         <v>137</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>147</v>
+      </c>
+      <c r="D131" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" t="s">
+        <v>154</v>
+      </c>
+      <c r="F131" t="s">
+        <v>283</v>
+      </c>
+      <c r="G131" t="s">
+        <v>398</v>
+      </c>
+      <c r="H131">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
         <v>143</v>
       </c>
-      <c r="D129" t="s">
-        <v>148</v>
-      </c>
-      <c r="E129" t="s">
-        <v>150</v>
-      </c>
-      <c r="F129" t="s">
-        <v>278</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="C132" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" t="s">
+        <v>154</v>
+      </c>
+      <c r="F132" t="s">
+        <v>284</v>
+      </c>
+      <c r="G132" t="s">
+        <v>399</v>
+      </c>
+      <c r="H132">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" t="s">
+        <v>154</v>
+      </c>
+      <c r="F133" t="s">
+        <v>285</v>
+      </c>
+      <c r="G133" t="s">
         <v>400</v>
       </c>
-      <c r="H129">
-        <v>0.4</v>
+      <c r="H133">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
@@ -7473,16 +7586,16 @@
         <v>599</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>600</v>
@@ -7494,10 +7607,10 @@
         <v>602</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>603</v>
@@ -7509,16 +7622,16 @@
         <v>605</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>600</v>
@@ -7530,10 +7643,10 @@
         <v>602</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>603</v>
@@ -7545,16 +7658,16 @@
         <v>605</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>600</v>
@@ -7566,10 +7679,10 @@
         <v>602</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>603</v>
@@ -7622,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
@@ -17191,7 +17304,7 @@
         <v>491</v>
       </c>
       <c r="B89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
@@ -17227,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -17248,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -17340,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
@@ -18547,16 +18660,16 @@
         <v>599</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>600</v>
@@ -18568,10 +18681,10 @@
         <v>602</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>603</v>
@@ -18583,16 +18696,16 @@
         <v>605</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>600</v>
@@ -18604,10 +18717,10 @@
         <v>602</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>603</v>
@@ -18619,16 +18732,16 @@
         <v>605</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>600</v>
@@ -18640,10 +18753,10 @@
         <v>602</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>603</v>
@@ -18696,7 +18809,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
@@ -28301,7 +28414,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -29621,16 +29734,16 @@
         <v>599</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>600</v>
@@ -29642,10 +29755,10 @@
         <v>602</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>603</v>
@@ -29657,16 +29770,16 @@
         <v>605</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>600</v>
@@ -29678,10 +29791,10 @@
         <v>602</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>603</v>
@@ -29693,16 +29806,16 @@
         <v>605</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>600</v>
@@ -29714,10 +29827,10 @@
         <v>602</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>603</v>
@@ -29734,13 +29847,13 @@
         <v>406</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -29755,7 +29868,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -29770,16 +29883,16 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
@@ -29791,10 +29904,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="3">
         <v>0</v>
@@ -29806,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
@@ -29827,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="3">
         <v>0</v>
@@ -39339,13 +39452,13 @@
         <v>491</v>
       </c>
       <c r="B89" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C89" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -39360,10 +39473,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -39375,7 +39488,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -39384,7 +39497,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -39396,10 +39509,10 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -39411,7 +39524,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -39432,7 +39545,7 @@
         <v>0</v>
       </c>
       <c r="AG89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH89" s="3">
         <v>0</v>
@@ -39452,10 +39565,10 @@
         <v>492</v>
       </c>
       <c r="B90" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -39473,7 +39586,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3">
         <v>0</v>
@@ -39488,13 +39601,13 @@
         <v>0</v>
       </c>
       <c r="N90" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
       </c>
       <c r="P90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="3">
         <v>0</v>
@@ -39509,7 +39622,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V90" s="3">
         <v>0</v>
@@ -40695,16 +40808,16 @@
         <v>599</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>600</v>
@@ -40716,10 +40829,10 @@
         <v>602</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>603</v>
@@ -40731,16 +40844,16 @@
         <v>605</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>600</v>
@@ -40752,10 +40865,10 @@
         <v>602</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>603</v>
@@ -40767,16 +40880,16 @@
         <v>605</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>600</v>
@@ -40788,10 +40901,10 @@
         <v>602</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>603</v>
@@ -40844,7 +40957,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
@@ -40865,7 +40978,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -40880,7 +40993,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
@@ -50449,7 +50562,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -50470,7 +50583,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -50485,7 +50598,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -51664,7 +51777,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52065,282 +52178,302 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
         <v>746</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
